--- a/biology/Médecine/Gina_Lombroso/Gina_Lombroso.xlsx
+++ b/biology/Médecine/Gina_Lombroso/Gina_Lombroso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gina Lombroso (née Gina Elena Zefora Lombroso à Pavie le 5 octobre 1872 et décédée à Genève le 27 mars 1944), de son nom d'épouse Gina Lombroso-Ferrero (elle est l'épouse de Guglielmo Ferrero et la mère de Leo Ferrero), est une vulgarisatrice scientifique, médecin et écrivaine italienne. Elle est notamment connue pour ses activités d'édition, son militantisme et ses études sur la condition féminine et également le machinisme.
-Elle est l'autrice d'une dizaine d'ouvrages dont L'anima della donna (1917-1918), traduit en 1924 sous le titre L'Âme de la femme[1] et Le tragedie del progresso meccanico (1930), traduit en 1931 sous le titre La Rançon du machinisme, dans lequel elle voit dans l'industrialisation un symptôme de décadence intellectuelle et morale[2]. Ce dernier ouvrage est cité élogieusement par Henri Bergson[3].
+Elle est l'autrice d'une dizaine d'ouvrages dont L'anima della donna (1917-1918), traduit en 1924 sous le titre L'Âme de la femme et Le tragedie del progresso meccanico (1930), traduit en 1931 sous le titre La Rançon du machinisme, dans lequel elle voit dans l'industrialisation un symptôme de décadence intellectuelle et morale. Ce dernier ouvrage est cité élogieusement par Henri Bergson.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Jeunesse et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« De sa nature elle était très douce, gaie et altruiste, la préférée de mon père et de tout le monde. » (Paola Lombroso Carrara (it) notes manuscrites sur sa sœur Gina).
 Gina Lombroso était la seconde des cinq enfants de Cesare Lombroso (1835-1909), célèbre anthropologue et criminologue positiviste, et de Nina De Benedetti, femme cultivée et intelligente appartenant à une famille aisée de commerçants d'Alexandrie aux origines juives.
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Écrits principaux
-I vantaggi della degenerazione, Bocca, Torino, 1904.
+          <t>Écrits principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>I vantaggi della degenerazione, Bocca, Torino, 1904.
 Cesare Lombroso. Appunti sulla vita. Le opere (en collaboration avec Paola Lombroso), Bocca, Torino, 1906.
 Nell'America Meridionale (Brasile-Uruguay-Argentina), Treves, Milano, 1908.
 Riflessioni sulla vita. L'anima della donna. Libro I: La tragica posizione della donna, Addi, Firenze, 1917.
@@ -587,9 +608,43 @@
 La donna nella vita. Riflessioni e deduzioni, Zanichelli, Bologna, 1923.
 Anime di donna. Vite vere, Zanichelli, Bologna, 1925.
 La donna nella società attuale, Zanichelli, Bologna, 1927.
-Le tragedie del progresso meccanico, Bocca, Torino, 1930.
-Écrits traduits en français
-L'âme de la femme, Payot, 1925 ;
+Le tragedie del progresso meccanico, Bocca, Torino, 1930.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gina_Lombroso</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gina_Lombroso</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Écrits traduits en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'âme de la femme, Payot, 1925 ;
 La Femme dans la société actuelle. Traduit de l'italien par François Le Hénaff, 1929 ;
 La Rançon du machinisme. Traduit de l'italien par Henri Winckler. Préface de Guglielmo Ferrero, 1931 ;
 L'éclosion d'une vie. notes sur Léo Ferrero-Lombroso de la naissance à vingt ans, Éditions Rieder, 1938 ;
